--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>API_ENDPOINT</t>
   </si>
@@ -22,61 +22,9 @@
     <t>JSON_PAYLOAD_TEMPLATE</t>
   </si>
   <si>
-    <t>/Kraydel-server/rest/login</t>
-  </si>
-  <si>
-    <t>{
- "username": "#username",
- "password": "#password"
-}</t>
-  </si>
-  <si>
     <t>API_NAME</t>
   </si>
   <si>
-    <t>Login API</t>
-  </si>
-  <si>
-    <t>Create Hospital</t>
-  </si>
-  <si>
-    <t>http://ramsayportalapi-uat.azurewebsites.net/api/hospitals/create</t>
-  </si>
-  <si>
-    <t>{
- "HospitalId":#hospitalId,
- "HospitalName":"#hospitalName",
- "Address1":"dddd",
- "Address2":"ddddd",
- "Suburb":"adf",
- "Web":"tyntymtwym",
- "SiteCode":"ddd",
- "Postcode":1,
- "State":"ddd",
- "AdminEmail":"sdcs@hadvc.com",
- "Longitude":0,
- "Latitude":0,
- "IsActive":true,
- "CreateUser":"portaladmin"
-}</t>
-  </si>
-  <si>
-    <t>Get Bucket List</t>
-  </si>
-  <si>
-    <t>/api/Bucket</t>
-  </si>
-  <si>
-    <t>Create Bucket</t>
-  </si>
-  <si>
-    <t>{
-  "title": "#title",
-  "description": "#description",
-  "goalDate": "#goaldate"
-}</t>
-  </si>
-  <si>
     <t>HTTP_METHOD</t>
   </si>
   <si>
@@ -86,30 +34,7 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Get All Medicines</t>
-  </si>
-  <si>
-    <t>/Kraydel-server/rest/get_all_medicines</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>Get all Decks</t>
-  </si>
-  <si>
-    <t>/api/decks</t>
-  </si>
-  <si>
-    <t>GET </t>
-  </si>
-  <si>
-    <t>{
-  "examDate": "#examDate",
-  "isExpert": #isExpert,
-  "title": "#title",
-  "userId": "#userId"
-}</t>
   </si>
   <si>
     <t>Create Deck</t>
@@ -129,15 +54,205 @@
   "userId": "#userId"
 }</t>
   </si>
+  <si>
+    <t>Generate Questions</t>
+  </si>
+  <si>
+    <t>{
+ "deckId": "#deckId", 
+"title": "#title", 
+"userId": "#userId", 
+"isExpert": #isExpert, 
+"text": "#text", 
+"examDate": "#examDate",
+"points":"#points"
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.240.141:8086/api/decks</t>
+  </si>
+  <si>
+    <t>http://10.199.240.141:8088/api/aggregated_questions/text</t>
+  </si>
+  <si>
+    <t>http://10.199.240.141:8090/api/decks</t>
+  </si>
+  <si>
+    <t>{
+  "archived": true,
+  "book": {
+    "bookAuthor": "#bookAuthor",
+    "bookTitle": "#bookTitle",
+    "chapter": "#chapter"
+  },
+  "cardPreview": true,
+  "createdAt": "2017-11-02T07:32:11.130Z",
+  "deckAuthor": "#deckAuthor",
+  "deckAuthorId": 0,
+  "description": "#description",
+  "downloads": 0,
+  "examDate": "#examDate",
+  "expert": true,
+  "id": 0,
+  "keywords": [
+    "string"
+  ],
+  "noOfCards": 0,
+  "notificationSettings": {
+    "areNotificationsEnabled": true,
+    "notificationFrequency": "string",
+    "notificationTime": "string"
+  },
+  "parentDeckId": 0,
+  "progress": 0,
+  "purchaseInfo": {
+    "price": 0,
+    "purchasedDate": "2017-11-02T07:32:11.130Z",
+    "sku": "string"
+  },
+  "starred": true,
+  "status": "string",
+  "subject": {
+    "id": 0,
+    "name": "string"
+  },
+  "tags": [
+    "string"
+  ],
+  "thumbnailUrl": "string",
+  "title": "#title",
+  "updatedAt": "2017-11-02T07:32:11.130Z",
+  "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.240.141:8089/api/questions</t>
+  </si>
+  <si>
+    <t>https://int-piapi-internal.stg-openclass.com/tokens</t>
+  </si>
+  <si>
+    <t>{
+ "userName": "#username",
+ "password": "#password"
+}</t>
+  </si>
+  <si>
+    <t>Get PI Token</t>
+  </si>
+  <si>
+    <t>Get all Questions</t>
+  </si>
+  <si>
+    <t>Create Question</t>
+  </si>
+  <si>
+    <t>{
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": #deckId,
+  "kind": "#kind",
+  "learningObjectives": [
+    "#learningObjectives"
+  ],
+  "question": {
+    "imageUrl": "#imageUrl",
+    "media": "#media",
+    "prompt": "#questionPrompt",
+    "promptType": "#promptType",
+    "timeout": #timeout
+  },
+  "rationale": "#rationale",
+  "stats": {
+    "boxId": #boxId,
+    "correctAttempts": #correctAttempts,
+    "inCorrectAttempts": #inCorrectAttempts,
+    "lastAswered": "#lastAswered",
+    "questionId": #questionId,
+    "skips": #skips,
+    "userId": #userId
+  },
+ "correctAnswers": [
+        {
+          "value": "#correctAnswer1",
+          "caseSensitive": #iscorrectAnswer1CaseSensitive
+        }
+  ],
+  "tags": [
+    "#tags"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>Create Expert Deck</t>
+  </si>
+  <si>
+    <t>{
+  "archived": true,
+  "book": {
+    "bookAuthor": "string",
+    "bookTitle": "string",
+    "chapter": "string"
+  },
+  "cardPreview": true,
+  "createdAt": "2017-11-07T08:58:51.860Z",
+  "deckAuthor": "#deckAuthor",
+  "deckAuthorId": #deckAuthorId,
+  "description": "#description",
+  "downloads": #downloads,
+  "examDate": "#examDate",
+  "expert": #isExpert,
+  "id": #id,
+  "keywords": [
+    "#keyword1"
+  ],
+  "noOfCards": #noOfCards,
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationFrequency": "#notificationFrequency",
+    "notificationTime": "#notificationTime"
+  },
+  "parentDeckId": #parentDeckId,
+  "progress": #progress,
+  "purchaseInfo": {
+    "price": #price,
+    "purchasedDate": "#purchasedDate",
+    "sku": "#sku"
+  },
+  "starred": #isStarred,
+  "status": "#status",
+  "subject": {
+    "id": #subjectId,
+    "name": "#subjectName"
+  },
+  "tags": [
+    "#tag1"
+  ],
+  "thumbnailUrl": "#thumbnailUrl",
+  "title": "#title",
+  "updatedAt": "#updatedAt",
+  "userId": "#userId"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,17 +275,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -224,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="API_NAME"/>
     <tableColumn id="2" name="API_ENDPOINT" dataDxfId="2"/>
@@ -523,28 +642,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="67.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -552,66 +673,67 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -619,61 +741,59 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>API_ENDPOINT</t>
   </si>
@@ -126,9 +126,6 @@
 }</t>
   </si>
   <si>
-    <t>http://10.199.240.141:8089/api/questions</t>
-  </si>
-  <si>
     <t>https://int-piapi-internal.stg-openclass.com/tokens</t>
   </si>
   <si>
@@ -138,52 +135,7 @@
 }</t>
   </si>
   <si>
-    <t>Get PI Token</t>
-  </si>
-  <si>
     <t>Get all Questions</t>
-  </si>
-  <si>
-    <t>Create Question</t>
-  </si>
-  <si>
-    <t>{
-  "creatorId": "#creatorId",
-  "creatorPlatform": "#creatorPlatform",
-  "creatoredSource": "#creatoredSource",
-  "creatoredType": "#creatoredType",
-  "deckId": #deckId,
-  "kind": "#kind",
-  "learningObjectives": [
-    "#learningObjectives"
-  ],
-  "question": {
-    "imageUrl": "#imageUrl",
-    "media": "#media",
-    "prompt": "#questionPrompt",
-    "promptType": "#promptType",
-    "timeout": #timeout
-  },
-  "rationale": "#rationale",
-  "stats": {
-    "boxId": #boxId,
-    "correctAttempts": #correctAttempts,
-    "inCorrectAttempts": #inCorrectAttempts,
-    "lastAswered": "#lastAswered",
-    "questionId": #questionId,
-    "skips": #skips,
-    "userId": #userId
-  },
- "correctAnswers": [
-        {
-          "value": "#correctAnswer1",
-          "caseSensitive": #iscorrectAnswer1CaseSensitive
-        }
-  ],
-  "tags": [
-    "#tags"
-  ]
-}</t>
   </si>
   <si>
     <t>Create Expert Deck</t>
@@ -234,6 +186,187 @@
   "title": "#title",
   "updatedAt": "#updatedAt",
   "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>Delete a Question</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Get a Question</t>
+  </si>
+  <si>
+    <t>Aggregated Text Questions</t>
+  </si>
+  <si>
+    <t>{
+  "deckId": "#deckId", 
+  "question": {
+        "timeout": #timeout,
+        "media": "#media",
+        "imageUrl": "#imageUrl",
+        "promptType": "#promptType"
+    },
+    "stats": {
+        "questionId": #questionId,
+        "userId": #userId,
+        "boxId": #boxId,
+        "skips": #skips,
+        "lastAswered": "#lastAswered",
+        "inCorrectAttempts": #inCorrectAttempts,
+        "correctAttempts": #correctAttempts
+    },
+   "creatorId": "#creatorId",
+    "creatoredType": "#creatoredType",
+    "creatorPlatform": "#creatorPlatform",
+    "creatoredSource": "#creatoredSource",
+"title": "#title", 
+"userId": "#user", 
+"isExpert": #isExpert, 
+"text": "#questionText", 
+"examDate": "#examDate",
+"points":"#points"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tst-piapi-internal.dev-openclass.com/tokens/ </t>
+  </si>
+  <si>
+    <t>Get Staging PI Token</t>
+  </si>
+  <si>
+    <t>Get QA PI Token</t>
+  </si>
+  <si>
+    <t>Image upload through aggregation service</t>
+  </si>
+  <si>
+    <t>Edit Short Answer Type Question</t>
+  </si>
+  <si>
+    <t>Create Short Answer Type Question</t>
+  </si>
+  <si>
+    <t>Create MCQ Type Question</t>
+  </si>
+  <si>
+    <t>{
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": #deckId,
+  "kind": "#kind",
+  "learningObjectives": [
+    "#learningObjectives"
+  ],
+  "question": {
+    "imageUrl": "#imageUrl",
+    "media": "#media",
+    "prompt": "#questionPrompt",
+    "promptType": "#promptType",
+    "timeout": #timeout
+  },
+  "rationale": "#rationale",
+  "stats": {
+    "boxId": #boxId,
+    "correctAttempts": #correctAttempts,
+    "inCorrectAttempts": #inCorrectAttempts,
+    "lastAswered": "#lastAswered",
+    "questionId": #questionId,
+    "skips": #skips,
+    "userId": #userId
+  },
+ "correctAnswers": [
+        #correctAnswerList
+  ],
+  "answers": [
+      {
+        "id": #answer1Id,
+        "value": "#answer1Value",
+        "type": "#answer1Type",
+        "caseSensitive": #answer1CaseSensitive
+      },
+      {
+        "id": #answer2Id,
+        "value": "#answer2Value",
+        "type": "#answer2Type",
+        "caseSensitive": #answer2CaseSensitive
+      },
+      {
+        "id": #answer3Id,
+        "value": "#answer3Value",
+        "type": "#answer3Type",
+        "caseSensitive": #answer3CaseSensitive
+      },
+      {
+        "id": #answer4Id,
+        "value": "#answer4Value",
+        "type": "#answer4Type",
+        "caseSensitive": #answer4CaseSensitive
+      },
+      {
+        "id": #answer5Id,
+        "value": "#answer5Value",
+        "type": "#answer5Type",
+        "caseSensitive": #answer5CaseSensitive
+      }
+    ],
+  "tags": [
+    "#tags"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.253.84:8070/api/questions</t>
+  </si>
+  <si>
+    <t>http://10.199.253.84:8070/api/aggregated_questions/text</t>
+  </si>
+  <si>
+    <t>http://10.199.253.84:8070/api/aggregated_questions/images/upload</t>
+  </si>
+  <si>
+    <t>{
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": #deckId,
+  "kind": "#kind",
+  "learningObjectives": [
+    "#learningObjectives"
+  ],
+  "question": {
+    "imageUrl": "#imageUrl",
+    "media": "#media",
+    "prompt": "#questionPrompt",
+    "promptType": "#promptType",
+    "timeout": #timeout
+  },
+  "rationale": "#rationale",
+  "stats": {
+    "boxId": #boxId,
+    "correctAttempts": #correctAttempts,
+    "inCorrectAttempts": #inCorrectAttempts,
+    "lastAswered": "#lastAswered",
+    "questionId": #questionId,
+    "skips": #skips,
+    "userId": #userId
+  },
+ "answers": [
+        {
+          "id": #correctAnswerId,
+          "value": "#correctAnswerValue",
+          "caseSensitive": #iscorrectAnswerCaseSensitive,
+          "type": "#correctAnswerType"
+        }
+  ],
+  "tags": [
+    "#tags"
+  ]
 }</t>
   </si>
 </sst>
@@ -292,7 +425,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -327,8 +463,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -343,10 +479,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="API_NAME"/>
+    <tableColumn id="1" name="API_NAME" dataDxfId="3"/>
     <tableColumn id="2" name="API_ENDPOINT" dataDxfId="2"/>
     <tableColumn id="4" name="HTTP_METHOD" dataDxfId="1"/>
     <tableColumn id="3" name="JSON_PAYLOAD_TEMPLATE" dataDxfId="0"/>
@@ -642,23 +778,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="71.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -672,128 +808,231 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
+      <c r="A2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B2" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="B12" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Smart_Flashcards\smart_flashcards_api_test_automation\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\MaxSoft-ATA-Framework\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Smart_Flashcards\smart_flashcards_api_test_automation\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\MaxSoft-ATA-Framework\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>API_NAME</t>
   </si>
@@ -647,6 +647,12 @@
   "updatedAt": "2018-01-30T04:03:33.042Z",
   "userId": "#userId"
 }</t>
+  </si>
+  <si>
+    <t>Local File Upload using Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/cards/file</t>
   </si>
 </sst>
 </file>
@@ -2067,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2678,6 +2684,18 @@
         <v>10</v>
       </c>
       <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2716,9 +2734,10 @@
     <hyperlink ref="B44" r:id="rId33"/>
     <hyperlink ref="B45" r:id="rId34"/>
     <hyperlink ref="B46" r:id="rId35"/>
+    <hyperlink ref="B47" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\MaxSoft-ATA-Framework\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\Pearson_Prep_API_Test_Automation\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>API_NAME</t>
   </si>
@@ -55,6 +55,509 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>Create a Deck using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Delete a Deck using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get all Decks using Aggregation service</t>
+  </si>
+  <si>
+    <t>Get a Deck using Aggregation service</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://int-piapi-internal.stg-openclass.com/tokens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://tst-piapi-internal.dev-openclass.com/tokens/ </t>
+    </r>
+  </si>
+  <si>
+    <t>Edit a Deck using Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/questions</t>
+  </si>
+  <si>
+    <t>Get Questions using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Copy Decks using Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/questions/copy</t>
+  </si>
+  <si>
+    <t>Create a Deck using Deck Service</t>
+  </si>
+  <si>
+    <t>Get All Categories in Deck Service</t>
+  </si>
+  <si>
+    <t>Get A Category in Deck Service</t>
+  </si>
+  <si>
+    <t>Create A Category in Deck Service</t>
+  </si>
+  <si>
+    <t>Edit A Category in Deck Service</t>
+  </si>
+  <si>
+    <t>Delete A Category in Deck Service</t>
+  </si>
+  <si>
+    <t>Get a Deck using Deck Service</t>
+  </si>
+  <si>
+    <t>Get all Decks using Deck Service</t>
+  </si>
+  <si>
+    <t>Edit a Deck using Deck Service</t>
+  </si>
+  <si>
+    <t>Delete a Deck using Deck Service</t>
+  </si>
+  <si>
+    <t>{
+  "description": "#description",
+  "name": "#name"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "title": "#title",
+  "description": "#description",
+  "tags": [
+    "#tags1"
+  ],
+  "subject": {
+    "id": #subjectId,
+    "name": "#subjectName"
+  },
+  "book": {
+    "bookTitle": "#bookTitle",
+    "bookAuthor": "#bookAuthor",
+    "chapter": "#bookChapter"
+  },
+  "purchaseInformation": {
+    "purchasedDate": #purchasedDate,
+    "price": #purchaseInformationPrice,
+    "sku": "#purchaseInformationsku"
+  },
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationTime": "#notificationTime",
+    "notificationFrequency": "#notificationFrequency"
+  },
+  "categoryId": "#categoryId",
+  "examDate": #examDate,
+  "userId": "#userId",
+  "parentDeckId": "#parentDeckId",
+  "tempDeckId": "#tempDeckId",
+  "archived": #archived,
+  "cardPreview": #cardPreview,
+  "noOfCards": #noOfCards,
+  "progress": #progress,
+  "downloads": #downloads,
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "status": "#status",
+  "starred": #starred
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8090/api/categories</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8090/api/decks</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8090/api/decks/users</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/decks</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/decks/users</t>
+  </si>
+  <si>
+    <t>Recommendation API in Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/learninganalytics/recommendations</t>
+  </si>
+  <si>
+    <t>{
+  "person": "#personId",
+  "deck": "#deckId"
+}</t>
+  </si>
+  <si>
+    <t>Activity API in Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/learninganalytics/activities</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8070/api/questions</t>
+  </si>
+  <si>
+    <t>{
+  "person": "#personId",
+  "deck": "#deckId",
+  "refreshDeck": #isRefreshDeck,
+  "activities": [
+    {
+      "activityId": "#activity1Id",
+      "cardId": "#activity1CardId",
+      "cardType": "#activity1CardType",
+      "startTime": "#activity1StartTime",
+      "endTime": "#activity1EndTime",
+      "sessionId": "#activity1SessionId",
+      "events": [
+        {
+          "eventType": "#activity1EventType1",
+    "eventTime": "#activity1EventTime1"
+        },
+        {
+          "eventType": "#activity1EventType2",
+    "eventTime": "#activity1EventTime2",
+          "score": #score
+        }
+      ]
+    },
+    {
+      "activityId": "#activity2Id",
+      "cardId": "#activity2CardId",
+      "cardType": "#activity2CardType",
+      "startTime": "#activity2StartTime",
+      "endTime": "#activity2EndTime",
+      "sessionId": "#activity2SessionId",
+      "events": [
+        {
+          "eventType": "#activity2EventType1",
+    "eventTime": "#activity2EventTime1"
+        }
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8070/api/aggregated_questions/images/upload</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8090/api/store</t>
+  </si>
+  <si>
+    <t>Search Expert Decks using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Create An Expert Deck using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Create Short Answer Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Get all Questions using Question Service</t>
+  </si>
+  <si>
+    <t>Edit Short Answer Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Get a Question using Question Service</t>
+  </si>
+  <si>
+    <t>Delete a Question using Question Service</t>
+  </si>
+  <si>
+    <t>Create MCQ Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Edit MCQ Type Question using Question Service</t>
+  </si>
+  <si>
+    <t>Image upload using Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/aggregated_questions/text</t>
+  </si>
+  <si>
+    <t>Create Questions from Text using Aggregation Service</t>
+  </si>
+  <si>
+    <t>{
+  "deckId": "#deckId", 
+  "question": {
+        "timeout": #timeout,
+        "media": "#media",
+        "imageUrl": "#imageUrl",
+        "promptType": "#promptType"
+    },
+  "creatoredType": "#creatoredType",
+    "creatorPlatform": "#creatorPlatform",
+    "creatoredSource": "#creatoredSource",
+    "creatorId":"#creatorId",
+"title": "#title", 
+"userId": "#userId", 
+"isExpert": #isExpert, 
+"text": "#questionText"
+}</t>
+  </si>
+  <si>
+    <t>Get all Questions using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Create Short Answer Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Edit Short Answer Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get a Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Delete a Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Create MCQ Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Edit MCQ Type Question using Aggregation Service</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "activityId": "#activityId",
+    "activityType": "#activityType",
+    "deck": {
+  "title": "#title",
+  "description": "#description",
+  "tags": [
+    "#tags1"
+  ],
+  "subject": {
+    "id": #subjectId,
+    "name": "#subjectName"
+  },
+  "book": {
+    "bookTitle": "#bookTitle",
+    "bookAuthor": "#bookAuthor",
+    "chapter": "#bookChapter"
+  },
+  "purchaseInformation": {
+    "purchasedDate": #purchasedDate,
+    "price": #purchaseInformationPrice,
+    "sku": "#purchaseInformationsku"
+  },
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationTime": "#notificationTime",
+    "notificationFrequency": "#notificationFrequency"
+  },
+  "categoryId": "#categoryId",
+  "examDate": #examDate,
+  "userId": "#userId",
+  "parentDeckId": "#parentDeckId",
+  "tempDeckId": "#tempDeckId",
+  "archived": #archived,
+  "cardPreview": #cardPreview,
+  "noOfCards": #noOfCards,
+  "progress": #progress,
+  "downloads": #downloads,
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "status": "#status",
+  "starred": #starred
+},
+    "deckId": "#deckId",
+    "serverDate": "#serverDate"
+  }
+]</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8090/api/sync</t>
+  </si>
+  <si>
+    <t>Sync API</t>
+  </si>
+  <si>
+    <t>PI Service Health</t>
+  </si>
+  <si>
+    <t>https://int-piapi-internal.stg-openclass.com</t>
+  </si>
+  <si>
+    <t>Document Service Health</t>
+  </si>
+  <si>
+    <t>https://documentservice-qa.stg-prsn.com/health</t>
+  </si>
+  <si>
+    <t>Smart Card Creation Health</t>
+  </si>
+  <si>
+    <t>Edit An Expert Deck using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>Delete Expert Deck by ID using Expert Deck Service</t>
+  </si>
+  <si>
+    <t>https://smartcards.prd-prsn.com/health</t>
+  </si>
+  <si>
+    <t>{
+  "archived": #isArchived,
+  "book": {
+    "bookAuthor": "#bookAuthorName",
+    "bookTitle": "#bookTitle",
+    "chapter": "#chapter"
+  },
+  "cardPreview": #cardPreview,
+  "categoryId": "#categoryId",
+  "createdAt": "#createdAt",
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "description": "#description",
+  "downloads": #downloads,
+  "epochTime": {
+    "createdAt": "",
+    "updatedAt": ""
+  },
+  "examDate": "2018-01-30T04:03:33.042Z",
+  "examReminder": {
+    "endDate": "2018-01-30T04:03:33.042Z",
+    "startDate": "2018-01-30T04:03:33.042Z",
+    "time": "#time"
+  },
+  "expert": true,
+  "expertDeck": true,
+  "id": "#id",
+  "keywords": [
+    "#keywords"
+  ],
+  "noOfCards": #noOfCards,
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationFrequency": "#notificationFrequency",
+    "notificationTime": "#notificationTime"
+  },
+  "parentDeckId": "#parentDeckId",
+  "progress": #progress,
+  "purchaseInfo": {
+    "price": #price,
+    "purchasedDate": "2018-01-30T04:03:33.042Z",
+    "sku": "#sku"
+  },
+  "starred": #starred,
+  "status": "#status",
+  "subjectId": "#subjectId",
+  "tags": [
+    "#tags"
+  ],
+  "tempDeckId": "#tempDeckId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "title": "#title",
+  "updatedAt": "2018-01-30T04:03:33.042Z",
+  "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "archived": #isArchived,
+  "book": {
+    "bookAuthor": "#bookAuthorName",
+    "bookTitle": "#bookTitle",
+    "chapter": "#chapter"
+  },
+  "cardPreview": #cardPreview,
+  "categoryId": "#categoryId",
+  "deckAuthor": "#deckAuthorName",
+  "deckAuthorId": "#deckAuthorId",
+  "description": "#description",
+  "downloads": #downloads,
+  "epochTime": {
+    "createdAt": "",
+    "updatedAt": ""
+  },
+  "examDate": "2018-01-30T04:03:33.042Z",
+  "examReminder": {
+    "endDate": "2018-01-30T04:03:33.042Z",
+    "startDate": "2018-01-30T04:03:33.042Z",
+    "time": "#time"
+  },
+  "expert": true,
+  "expertDeck": true,
+  "keywords": [
+    "#keywords"
+  ],
+  "noOfCards": #noOfCards,
+  "notificationSettings": {
+    "areNotificationsEnabled": #areNotificationsEnabled,
+    "notificationFrequency": "#notificationFrequency",
+    "notificationTime": "#notificationTime"
+  },
+  "parentDeckId": "#parentDeckId",
+  "progress": #progress,
+  "purchaseInfo": {
+    "price": #price,
+    "purchasedDate": "2018-01-30T04:03:33.042Z",
+    "sku": "#sku"
+  },
+  "starred": #starred,
+  "status": "#status",
+  "subjectId": "#subjectId",
+  "tags": [
+    "#tags"
+  ],
+  "tempDeckId": "#tempDeckId",
+  "thumbnailUrl": "#thumbnailUrl",
+  "title": "#title",
+  "updatedAt": "2018-01-30T04:03:33.042Z",
+  "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "accessToken": "#accessToken",
+  "contextId": "#contextId",
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": "#deckId",
+  "examDate": "#examDate",
+  "expert": #isExpert,
+  "fileId": "#fileId",
+  "title": "#title",
+  "type": "#type",
+  "userId": "#userId"
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/cards/cloud</t>
   </si>
   <si>
     <t>{
@@ -62,8 +565,53 @@
   "creatorPlatform": "#creatorPlatform",
   "creatoredSource": "#creatoredSource",
   "creatoredType": "#creatoredType",
-  "deckId": #deckId,
+  "deckId": "#deckId",
+  "tempQuestionId": "#tempQuestionId",
   "kind": "#kind",
+  "deleted": #isDeleted,
+  "learningObjectives": [
+    "#learningObjectives"
+  ],
+  "question": {
+    "imageUrl": "#imageUrl",
+    "media": "#media",
+    "prompt": "#questionPrompt",
+    "promptType": "#promptType",
+    "timeout": #timeout
+  },
+  "rationale": "#rationale",
+  "stats": {
+    "boxId": #boxId,
+    "correctAttempts": #correctAttempts,
+    "inCorrectAttempts": #inCorrectAttempts,
+    "lastAswered": "#lastAswered",
+    "questionId": #questionId,
+    "skips": #skips,
+    "userId": #userId
+  },
+ "answers": [
+        {
+          "id": #correctAnswerId,
+          "value": "#correctAnswerValue",
+          "caseSensitive": #iscorrectAnswerCaseSensitive,
+          "type": "#correctAnswerType"
+        }
+  ],
+  "tags": [
+    "#tags"
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "creatorId": "#creatorId",
+  "creatorPlatform": "#creatorPlatform",
+  "creatoredSource": "#creatoredSource",
+  "creatoredType": "#creatoredType",
+  "deckId": "#deckId",
+  "tempQuestionId": "#tempQuestionId",
+  "kind": "#kind",
+  "deleted": #isDeleted,
   "learningObjectives": [
     "#learningObjectives"
   ],
@@ -125,176 +673,15 @@
 }</t>
   </si>
   <si>
-    <t>Create a Deck using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Delete a Deck using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Get all Decks using Aggregation service</t>
-  </si>
-  <si>
-    <t>Get a Deck using Aggregation service</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://int-piapi-internal.stg-openclass.com/tokens</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tst-piapi-internal.dev-openclass.com/tokens/ </t>
-    </r>
-  </si>
-  <si>
-    <t>Edit a Deck using Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/questions</t>
-  </si>
-  <si>
-    <t>Get Questions using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Copy Decks using Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/questions/copy</t>
-  </si>
-  <si>
-    <t>Create a Deck using Deck Service</t>
-  </si>
-  <si>
-    <t>Get All Categories in Deck Service</t>
-  </si>
-  <si>
-    <t>Get A Category in Deck Service</t>
-  </si>
-  <si>
-    <t>Create A Category in Deck Service</t>
-  </si>
-  <si>
-    <t>Edit A Category in Deck Service</t>
-  </si>
-  <si>
-    <t>Delete A Category in Deck Service</t>
-  </si>
-  <si>
-    <t>Get a Deck using Deck Service</t>
-  </si>
-  <si>
-    <t>Get all Decks using Deck Service</t>
-  </si>
-  <si>
-    <t>Edit a Deck using Deck Service</t>
-  </si>
-  <si>
-    <t>Delete a Deck using Deck Service</t>
-  </si>
-  <si>
-    <t>{
-  "description": "#description",
-  "name": "#name"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "title": "#title",
-  "description": "#description",
-  "tags": [
-    "#tags1"
-  ],
-  "subject": {
-    "id": #subjectId,
-    "name": "#subjectName"
-  },
-  "book": {
-    "bookTitle": "#bookTitle",
-    "bookAuthor": "#bookAuthor",
-    "chapter": "#bookChapter"
-  },
-  "purchaseInformation": {
-    "purchasedDate": #purchasedDate,
-    "price": #purchaseInformationPrice,
-    "sku": "#purchaseInformationsku"
-  },
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationTime": "#notificationTime",
-    "notificationFrequency": "#notificationFrequency"
-  },
-  "categoryId": "#categoryId",
-  "examDate": #examDate,
-  "userId": "#userId",
-  "parentDeckId": "#parentDeckId",
-  "tempDeckId": "#tempDeckId",
-  "archived": #archived,
-  "cardPreview": #cardPreview,
-  "noOfCards": #noOfCards,
-  "progress": #progress,
-  "downloads": #downloads,
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "status": "#status",
-  "starred": #starred
-}</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8090/api/categories</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8090/api/decks</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8090/api/decks/users</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/decks</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/decks/users</t>
-  </si>
-  <si>
-    <t>Recommendation API in Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/learninganalytics/recommendations</t>
-  </si>
-  <si>
-    <t>{
-  "person": "#personId",
-  "deck": "#deckId"
-}</t>
-  </si>
-  <si>
-    <t>Activity API in Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/learninganalytics/activities</t>
-  </si>
-  <si>
     <t>{
   "creatorId": "#creatorId",
   "creatorPlatform": "#creatorPlatform",
   "creatoredSource": "#creatoredSource",
   "creatoredType": "#creatoredType",
-  "deckId": "#deckId",
+  "deckId": "#deckId", 
+  "tempQuestionId": "#tempQuestionId",
   "kind": "#kind",
+  "deleted": #isDeleted,
   "learningObjectives": [
     "#learningObjectives"
   ],
@@ -315,351 +702,116 @@
     "skips": #skips,
     "userId": #userId
   },
- "answers": [
-        {
-          "id": #correctAnswerId,
-          "value": "#correctAnswerValue",
-          "caseSensitive": #iscorrectAnswerCaseSensitive,
-          "type": "#correctAnswerType"
-        }
+ "correctAnswers": [
+        #correctAnswerList
   ],
+  "answers": [
+      {
+        "id": #answer1Id,
+        "value": "#answer1Value",
+        "type": "#answer1Type",
+        "caseSensitive": #answer1CaseSensitive
+      },
+      {
+        "id": #answer2Id,
+        "value": "#answer2Value",
+        "type": "#answer2Type",
+        "caseSensitive": #answer2CaseSensitive
+      },
+      {
+        "id": #answer3Id,
+        "value": "#answer3Value",
+        "type": "#answer3Type",
+        "caseSensitive": #answer3CaseSensitive
+      },
+      {
+        "id": #answer4Id,
+        "value": "#answer4Value",
+        "type": "#answer4Type",
+        "caseSensitive": #answer4CaseSensitive
+      },
+      {
+        "id": #answer5Id,
+        "value": "#answer5Value",
+        "type": "#answer5Type",
+        "caseSensitive": #answer5CaseSensitive
+      }
+    ],
   "tags": [
     "#tags"
   ]
 }</t>
   </si>
   <si>
-    <t>http://10.199.253.187:8070/api/questions</t>
+    <t>http://10.199.253.187:8085/api/store/purchase/decks</t>
+  </si>
+  <si>
+    <t>Add Expert Deck To My Deck using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get Production PI Token</t>
+  </si>
+  <si>
+    <t>https://piapi-internal.openclass.com/tokens/</t>
+  </si>
+  <si>
+    <t>Send A Feedback</t>
+  </si>
+  <si>
+    <t>http://10.199.253.83:8082/api/feedback</t>
+  </si>
+  <si>
+    <t>{ 
+ "comment": "#comment",
+ "username": "#username",
+ "rating": "#rating", 
+ "appId": "#appId", 
+ "email": "#email", 
+ "appName": "#appName" 
+}</t>
+  </si>
+  <si>
+    <t>http://10.199.253.83:8082/api/feedback/apps/sfc_mvp</t>
+  </si>
+  <si>
+    <t>Send A Feedback using Aggregation Service</t>
+  </si>
+  <si>
+    <t>Get All Feedback</t>
+  </si>
+  <si>
+    <t>Create Cards in Aggregation Service using Google Drive File Upload</t>
+  </si>
+  <si>
+    <t>http://10.199.240.44:8085/api/feedback</t>
+  </si>
+  <si>
+    <t>Send Force Update</t>
+  </si>
+  <si>
+    <t>http://10.199.253.83:8082/api/version</t>
+  </si>
+  <si>
+    <t>Get Force Update Latest Version</t>
+  </si>
+  <si>
+    <t>http://10.199.240.44:8085/api/version</t>
   </si>
   <si>
     <t>{
-  "person": "#personId",
-  "deck": "#deckId",
-  "refreshDeck": #isRefreshDeck,
-  "activities": [
-    {
-      "activityId": "#activity1Id",
-      "cardId": "#activity1CardId",
-      "cardType": "#activity1CardType",
-      "startTime": "#activity1StartTime",
-      "endTime": "#activity1EndTime",
-      "sessionId": "#activity1SessionId",
-      "events": [
-        {
-          "eventType": "#activity1EventType1",
-    "eventTime": "#activity1EventTime1"
-        },
-        {
-          "eventType": "#activity1EventType2",
-    "eventTime": "#activity1EventTime2",
-          "score": #score
-        }
-      ]
-    },
-    {
-      "activityId": "#activity2Id",
-      "cardId": "#activity2CardId",
-      "cardType": "#activity2CardType",
-      "startTime": "#activity2StartTime",
-      "endTime": "#activity2EndTime",
-      "sessionId": "#activity2SessionId",
-      "events": [
-        {
-          "eventType": "#activity2EventType1",
-    "eventTime": "#activity2EventTime1"
-        }
-      ]
-    }
-  ]
+"version": "#version",
+"versionCode": "#androidVersionCode",
+"appName": "#appName",
+"platform": "#platform",
+"forceUpdate": #allowforceUpdate
 }</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8070/api/aggregated_questions/images/upload</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8090/api/store</t>
-  </si>
-  <si>
-    <t>Search Expert Decks using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Create An Expert Deck using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Create Short Answer Type Question using Question Service</t>
-  </si>
-  <si>
-    <t>Get all Questions using Question Service</t>
-  </si>
-  <si>
-    <t>Edit Short Answer Type Question using Question Service</t>
-  </si>
-  <si>
-    <t>Get a Question using Question Service</t>
-  </si>
-  <si>
-    <t>Delete a Question using Question Service</t>
-  </si>
-  <si>
-    <t>Create MCQ Type Question using Question Service</t>
-  </si>
-  <si>
-    <t>Edit MCQ Type Question using Question Service</t>
-  </si>
-  <si>
-    <t>Image upload using Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/aggregated_questions/text</t>
-  </si>
-  <si>
-    <t>Create Questions from Text using Aggregation Service</t>
-  </si>
-  <si>
-    <t>{
-  "deckId": "#deckId", 
-  "question": {
-        "timeout": #timeout,
-        "media": "#media",
-        "imageUrl": "#imageUrl",
-        "promptType": "#promptType"
-    },
-  "creatoredType": "#creatoredType",
-    "creatorPlatform": "#creatorPlatform",
-    "creatoredSource": "#creatoredSource",
-    "creatorId":"#creatorId",
-"title": "#title", 
-"userId": "#userId", 
-"isExpert": #isExpert, 
-"text": "#questionText"
-}</t>
-  </si>
-  <si>
-    <t>Get all Questions using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Create Short Answer Type Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Edit Short Answer Type Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Get a Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Delete a Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Create MCQ Type Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>Edit MCQ Type Question using Aggregation Service</t>
-  </si>
-  <si>
-    <t>[
-  {
-    "activityId": "#activityId",
-    "activityType": "#activityType",
-    "deck": {
-  "title": "#title",
-  "description": "#description",
-  "tags": [
-    "#tags1"
-  ],
-  "subject": {
-    "id": #subjectId,
-    "name": "#subjectName"
-  },
-  "book": {
-    "bookTitle": "#bookTitle",
-    "bookAuthor": "#bookAuthor",
-    "chapter": "#bookChapter"
-  },
-  "purchaseInformation": {
-    "purchasedDate": #purchasedDate,
-    "price": #purchaseInformationPrice,
-    "sku": "#purchaseInformationsku"
-  },
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationTime": "#notificationTime",
-    "notificationFrequency": "#notificationFrequency"
-  },
-  "categoryId": "#categoryId",
-  "examDate": #examDate,
-  "userId": "#userId",
-  "parentDeckId": "#parentDeckId",
-  "tempDeckId": "#tempDeckId",
-  "archived": #archived,
-  "cardPreview": #cardPreview,
-  "noOfCards": #noOfCards,
-  "progress": #progress,
-  "downloads": #downloads,
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "status": "#status",
-  "starred": #starred
-},
-    "deckId": "#deckId",
-    "serverDate": "#serverDate"
-  }
-]</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8090/api/sync</t>
-  </si>
-  <si>
-    <t>Sync API</t>
-  </si>
-  <si>
-    <t>PI Service Health</t>
-  </si>
-  <si>
-    <t>https://int-piapi-internal.stg-openclass.com</t>
-  </si>
-  <si>
-    <t>Document Service Health</t>
-  </si>
-  <si>
-    <t>https://documentservice-qa.stg-prsn.com/health</t>
-  </si>
-  <si>
-    <t>Smart Card Creation Health</t>
-  </si>
-  <si>
-    <t>Edit An Expert Deck using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>Delete Expert Deck by ID using Expert Deck Service</t>
-  </si>
-  <si>
-    <t>https://smartcards.prd-prsn.com/health</t>
-  </si>
-  <si>
-    <t>{
-  "archived": #isArchived,
-  "book": {
-    "bookAuthor": "#bookAuthorName",
-    "bookTitle": "#bookTitle",
-    "chapter": "#chapter"
-  },
-  "cardPreview": #cardPreview,
-  "categoryId": "#categoryId",
-  "createdAt": "#createdAt",
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "description": "#description",
-  "downloads": #downloads,
-  "epochTime": {
-    "createdAt": "",
-    "updatedAt": ""
-  },
-  "examDate": "2018-01-30T04:03:33.042Z",
-  "examReminder": {
-    "endDate": "2018-01-30T04:03:33.042Z",
-    "startDate": "2018-01-30T04:03:33.042Z",
-    "time": "#time"
-  },
-  "expert": true,
-  "expertDeck": true,
-  "id": "#id",
-  "keywords": [
-    "#keywords"
-  ],
-  "noOfCards": #noOfCards,
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationFrequency": "#notificationFrequency",
-    "notificationTime": "#notificationTime"
-  },
-  "parentDeckId": "#parentDeckId",
-  "progress": #progress,
-  "purchaseInfo": {
-    "price": #price,
-    "purchasedDate": "2018-01-30T04:03:33.042Z",
-    "sku": "#sku"
-  },
-  "starred": #starred,
-  "status": "#status",
-  "subjectId": "#subjectId",
-  "tags": [
-    "#tags"
-  ],
-  "tempDeckId": "#tempDeckId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "title": "#title",
-  "updatedAt": "2018-01-30T04:03:33.042Z",
-  "userId": "#userId"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "archived": #isArchived,
-  "book": {
-    "bookAuthor": "#bookAuthorName",
-    "bookTitle": "#bookTitle",
-    "chapter": "#chapter"
-  },
-  "cardPreview": #cardPreview,
-  "categoryId": "#categoryId",
-  "deckAuthor": "#deckAuthorName",
-  "deckAuthorId": "#deckAuthorId",
-  "description": "#description",
-  "downloads": #downloads,
-  "epochTime": {
-    "createdAt": "",
-    "updatedAt": ""
-  },
-  "examDate": "2018-01-30T04:03:33.042Z",
-  "examReminder": {
-    "endDate": "2018-01-30T04:03:33.042Z",
-    "startDate": "2018-01-30T04:03:33.042Z",
-    "time": "#time"
-  },
-  "expert": true,
-  "expertDeck": true,
-  "keywords": [
-    "#keywords"
-  ],
-  "noOfCards": #noOfCards,
-  "notificationSettings": {
-    "areNotificationsEnabled": #areNotificationsEnabled,
-    "notificationFrequency": "#notificationFrequency",
-    "notificationTime": "#notificationTime"
-  },
-  "parentDeckId": "#parentDeckId",
-  "progress": #progress,
-  "purchaseInfo": {
-    "price": #price,
-    "purchasedDate": "2018-01-30T04:03:33.042Z",
-    "sku": "#sku"
-  },
-  "starred": #starred,
-  "status": "#status",
-  "subjectId": "#subjectId",
-  "tags": [
-    "#tags"
-  ],
-  "tempDeckId": "#tempDeckId",
-  "thumbnailUrl": "#thumbnailUrl",
-  "title": "#title",
-  "updatedAt": "2018-01-30T04:03:33.042Z",
-  "userId": "#userId"
-}</t>
-  </si>
-  <si>
-    <t>Local File Upload using Aggregation Service</t>
-  </si>
-  <si>
-    <t>http://10.199.253.187:8085/api/cards/file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -690,6 +842,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -758,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -854,6 +1013,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2073,16 +2246,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="1" customWidth="1"/>
   </cols>
@@ -2102,642 +2275,743 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D22" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="26"/>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D42" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="D48" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D50" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="34"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D52" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="34"/>
+      <c r="D54" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B13" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B34:B37" r:id="rId16" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B29:B32" r:id="rId17" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B37" r:id="rId18"/>
-    <hyperlink ref="B33:B36" r:id="rId19" display="http://10.98.199.63:8085/api/categories"/>
-    <hyperlink ref="B32" r:id="rId20"/>
-    <hyperlink ref="B28:B31" r:id="rId21" display="http://10.98.199.63:8085/api/decks"/>
-    <hyperlink ref="B30" r:id="rId22"/>
-    <hyperlink ref="B38" r:id="rId23"/>
-    <hyperlink ref="B39" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B40" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B11" r:id="rId28"/>
-    <hyperlink ref="B20" r:id="rId29"/>
-    <hyperlink ref="B41" r:id="rId30"/>
-    <hyperlink ref="B42" r:id="rId31"/>
-    <hyperlink ref="B43" r:id="rId32"/>
-    <hyperlink ref="B44" r:id="rId33"/>
-    <hyperlink ref="B45" r:id="rId34"/>
-    <hyperlink ref="B46" r:id="rId35"/>
-    <hyperlink ref="B47" r:id="rId36"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B35:B38" r:id="rId16" display="http://10.98.199.63:8085/api/categories"/>
+    <hyperlink ref="B30:B33" r:id="rId17" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B38" r:id="rId18"/>
+    <hyperlink ref="B34:B37" r:id="rId19" display="http://10.98.199.63:8085/api/categories"/>
+    <hyperlink ref="B33" r:id="rId20"/>
+    <hyperlink ref="B29:B32" r:id="rId21" display="http://10.98.199.63:8085/api/decks"/>
+    <hyperlink ref="B31" r:id="rId22"/>
+    <hyperlink ref="B39" r:id="rId23"/>
+    <hyperlink ref="B40" r:id="rId24"/>
+    <hyperlink ref="B37" r:id="rId25"/>
+    <hyperlink ref="B41" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B12" r:id="rId28"/>
+    <hyperlink ref="B21" r:id="rId29"/>
+    <hyperlink ref="B42" r:id="rId30"/>
+    <hyperlink ref="B43" r:id="rId31"/>
+    <hyperlink ref="B44" r:id="rId32"/>
+    <hyperlink ref="B45" r:id="rId33"/>
+    <hyperlink ref="B46" r:id="rId34"/>
+    <hyperlink ref="B47" r:id="rId35"/>
+    <hyperlink ref="B48" r:id="rId36"/>
+    <hyperlink ref="B49" r:id="rId37"/>
+    <hyperlink ref="B2" r:id="rId38"/>
+    <hyperlink ref="B51" r:id="rId39"/>
+    <hyperlink ref="B50" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41"/>
+    <hyperlink ref="B53" r:id="rId42"/>
+    <hyperlink ref="B54" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
   <si>
     <t>API_NAME</t>
   </si>
@@ -805,6 +805,18 @@
 "platform": "#platform",
 "forceUpdate": #allowforceUpdate
 }</t>
+  </si>
+  <si>
+    <t>Get Questions Count using Aggregation Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/questions/count</t>
+  </si>
+  <si>
+    <t>Get Questions Count using Question Service</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8070/api/questions/count</t>
   </si>
 </sst>
 </file>
@@ -2246,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2963,6 +2975,30 @@
         <v>8</v>
       </c>
       <c r="D54" s="34"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3009,9 +3045,11 @@
     <hyperlink ref="B52" r:id="rId41"/>
     <hyperlink ref="B53" r:id="rId42"/>
     <hyperlink ref="B54" r:id="rId43"/>
+    <hyperlink ref="B55" r:id="rId44"/>
+    <hyperlink ref="B56" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/resources/api_document/api_doc.xlsx
+++ b/resources/api_document/api_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\Pearson_Prep\Pearson_Prep_API_Test_Automation\resources\api_document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnimaOs\IdeaProjects\MaxSoft-IntelliAPI\resources\api_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>API_NAME</t>
   </si>
@@ -818,12 +818,18 @@
   <si>
     <t>http://10.199.253.187:8070/api/questions/count</t>
   </si>
+  <si>
+    <t>Create Cards From File</t>
+  </si>
+  <si>
+    <t>http://10.199.253.187:8085/api/cards/file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -859,6 +865,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -929,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1038,6 +1049,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2258,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2999,6 +3013,21 @@
         <v>8</v>
       </c>
       <c r="D56" s="34"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3047,9 +3076,10 @@
     <hyperlink ref="B54" r:id="rId43"/>
     <hyperlink ref="B55" r:id="rId44"/>
     <hyperlink ref="B56" r:id="rId45"/>
+    <hyperlink ref="B57" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
